--- a/Documentation/Navigation_14JAN21.xlsx
+++ b/Documentation/Navigation_14JAN21.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\asl\ASL4321 Project\ASL4321_Display_Demo\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45634689-5EED-40C3-9060-3033A3ABA128}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98496471-AC80-4136-925D-24F86A72C2B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="945" windowWidth="24105" windowHeight="14655" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings and Navigation" sheetId="1" r:id="rId1"/>
     <sheet name="Programming" sheetId="2" r:id="rId2"/>
-    <sheet name="Newer Main Screen" sheetId="4" r:id="rId3"/>
-    <sheet name="User Screen" sheetId="3" r:id="rId4"/>
+    <sheet name="Programming 4321" sheetId="5" r:id="rId3"/>
+    <sheet name="Newer Main Screen" sheetId="4" r:id="rId4"/>
+    <sheet name="User Screen" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="132">
   <si>
     <t>LEFT PAD</t>
   </si>
@@ -363,12 +364,132 @@
   <si>
     <t>This is AUDIBLE OUT feature</t>
   </si>
+  <si>
+    <t>1st level</t>
+  </si>
+  <si>
+    <t>Pad Setting</t>
+  </si>
+  <si>
+    <t>2nd Level</t>
+  </si>
+  <si>
+    <t>Set Pad Type</t>
+  </si>
+  <si>
+    <t>Set Pad Direction</t>
+  </si>
+  <si>
+    <t>Set Minimum Speed</t>
+  </si>
+  <si>
+    <t>3rd Level</t>
+  </si>
+  <si>
+    <t>Sets Proportional/Digital operation</t>
+  </si>
+  <si>
+    <t>Set Forward, Reverse, Left, Right, or Mode</t>
+  </si>
+  <si>
+    <t>4th Level</t>
+  </si>
+  <si>
+    <t>Sets Short and Long only if 3rd level is MODE.</t>
+  </si>
+  <si>
+    <t>User Settings</t>
+  </si>
+  <si>
+    <t>Set Clicks On/Off, Power Up Idle On/Off, RNet Enable, and Mode (Reverse)</t>
+  </si>
+  <si>
+    <t>Feature List</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Set Veer Adjust</t>
+  </si>
+  <si>
+    <t>Diagnostics</t>
+  </si>
+  <si>
+    <t>Pad Diagnostics</t>
+  </si>
+  <si>
+    <t>Reset Settings</t>
+  </si>
+  <si>
+    <t>Reset Settings screens with confirmation.</t>
+  </si>
+  <si>
+    <t>TODO: Add "Ordering capability" of features</t>
+  </si>
+  <si>
+    <t>Seating
+(If enabled in "Feature List")</t>
+  </si>
+  <si>
+    <t>Set Left, Right, Forward and Reverse seating operations
+PLUS "NEXT" button.</t>
+  </si>
+  <si>
+    <t>Keep showing Left, Right, Forward and Reverse seating operation and NEXT buttons.</t>
+  </si>
+  <si>
+    <t>When all four quadrants are OFF, then this completes the Seating Features programming.</t>
+  </si>
+  <si>
+    <t>Power On/Off, Bluetooth, Next Function, Next Profile, Seating, Audible OR
+RNet settings.</t>
+  </si>
+  <si>
+    <t>Set Left, Right, Forward and Reverse Audible operations
+PLUS "NEXT" button.</t>
+  </si>
+  <si>
+    <t>When all four quadrants are OFF, then this completes the Audible Features programming.</t>
+  </si>
+  <si>
+    <t>Keep showing Left, Right, Forward and Reverse Audible operations
+PLUS "NEXT" button.</t>
+  </si>
+  <si>
+    <t>Audible Use
+(If enabled in "Feature List")</t>
+  </si>
+  <si>
+    <t>Audible Sounds</t>
+  </si>
+  <si>
+    <t>Display list of sounds, plus "+ Add new".</t>
+  </si>
+  <si>
+    <t>TODO: Any user added sounds can be deleted.</t>
+  </si>
+  <si>
+    <t>"Add new" shows list of sounds from "USB" stick. Allows entering 5 characters for identification.</t>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+  </si>
+  <si>
+    <t>Set Device. Enable/Disable Forward, Left, Right and Reverse Pads</t>
+  </si>
+  <si>
+    <t>Keep showing "Set Device" and "Set Pad" screen.</t>
+  </si>
+  <si>
+    <t>When "Device" is NONE, then stop programming.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +541,13 @@
     </font>
     <font>
       <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -513,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -558,6 +686,25 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1744,22 +1891,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>75162</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>89507</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567EFBC0-6713-4A6B-8A04-13B18E9829A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247C30BF-E836-44F4-AF29-8539C2D3DE22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,404 +1922,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="761999"/>
-          <a:ext cx="2457449" cy="1408663"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>70457</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247C30BF-E836-44F4-AF29-8539C2D3DE22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1238250" y="2667000"/>
+          <a:off x="1238250" y="3067050"/>
           <a:ext cx="2447925" cy="1403957"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>83932</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E2107A-5D82-48B0-91D1-A3039DE3A614}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6134101" y="971550"/>
-          <a:ext cx="2457450" cy="1398382"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>11334</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF870777-04D6-4F46-9037-5E445955D190}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9134476" y="971550"/>
-          <a:ext cx="2459258" cy="1409700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>77336</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53ECC7BE-8C71-4DFE-8440-DE0DD8127450}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12258676" y="962025"/>
-          <a:ext cx="2449060" cy="1419225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>42341</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE80CF09-2C4C-4AEE-94D7-AB17FE8B4D94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15278100" y="952500"/>
-          <a:ext cx="2442641" cy="1400175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>41827</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC09728A-35A9-453F-9766-DEAF4A5A3F0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18316575" y="962026"/>
-          <a:ext cx="2451652" cy="1409700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>597496</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B22961-7096-43C1-B374-6DBD9EA8A0C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15240000" y="3057525"/>
-          <a:ext cx="2426296" cy="1400175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>68991</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4536A244-0E51-4C68-ABE7-4B247490E495}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15240000" y="5124450"/>
-          <a:ext cx="2447925" cy="1421541"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>5625</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B4E369F-AACA-4B06-85A7-A5020E7DE983}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15220950" y="7258050"/>
-          <a:ext cx="2463075" cy="1419225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2702,7 +2453,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> press (TYPICAL)</a:t>
+            <a:t> press advances to next feature</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -2767,6 +2518,538 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Long USER PORT SWITCH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> press</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5541</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E38DC463-6E6B-4F6D-81C2-05015406A510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="952500"/>
+          <a:ext cx="2443941" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>50521</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C59C5068-2E5B-4D89-9632-00EFB469F483}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="952500"/>
+          <a:ext cx="2488921" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>24742</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE77B5AF-23F9-4D89-8402-093C06C6B926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="952501"/>
+          <a:ext cx="2463142" cy="1390649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D7EDE10-95F3-41E3-929C-54FC12CE3B38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12201526" y="962026"/>
+          <a:ext cx="2438400" cy="1396262"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>608041</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4058F618-B736-4E72-BEA5-1BCB830A89A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15249525" y="942976"/>
+          <a:ext cx="2427316" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>74415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68D8660F-BDC1-46A2-A46F-594FDD16F414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18288000" y="952501"/>
+          <a:ext cx="2457450" cy="1407914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0906F8BC-0F07-4FD7-BF14-3A73C9F68074}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240000" y="3048000"/>
+          <a:ext cx="2438400" cy="1391920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>685</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7275BBFB-6215-4811-8AB2-9F8B5913A583}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240000" y="5143500"/>
+          <a:ext cx="2439085" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>18359</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636502FE-40C9-4D47-AB88-958A9BA6DD59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240000" y="7239001"/>
+          <a:ext cx="2456759" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457256</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314381</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>32040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Arrow: Right 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20199BD5-E4D2-46E6-B123-C0CDA8273D7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1543162" y="2480021"/>
+          <a:ext cx="733313" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Short USER PORT SWITCH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> press</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114356</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>70252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581081</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Arrow: Right 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5F9996-3B1A-4CCF-88F7-DF8E00FE93F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2419462" y="2489546"/>
+          <a:ext cx="733313" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Press	 USER PORT SWITCH</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -4017,7 +4300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4031,10 +4314,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4091,18 +4374,18 @@
     </row>
     <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -4151,22 +4434,22 @@
     </row>
     <row r="5" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4239,28 +4522,28 @@
     </row>
     <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="31" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -4290,14 +4573,14 @@
     </row>
     <row r="8" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="5" t="s">
         <v>16</v>
       </c>
@@ -4323,14 +4606,14 @@
     </row>
     <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="5" t="s">
         <v>18</v>
       </c>
@@ -4385,18 +4668,18 @@
     </row>
     <row r="11" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -4445,22 +4728,22 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23" t="s">
+      <c r="G13" s="30"/>
+      <c r="H13" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="23"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="1" t="s">
         <v>5</v>
       </c>
@@ -4533,28 +4816,28 @@
     </row>
     <row r="15" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="31" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="5" t="s">
@@ -4584,14 +4867,14 @@
     </row>
     <row r="16" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="5" t="s">
         <v>16</v>
       </c>
@@ -4619,14 +4902,14 @@
     </row>
     <row r="17" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="5" t="s">
         <v>25</v>
       </c>
@@ -4654,14 +4937,14 @@
     </row>
     <row r="18" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="5" t="s">
         <v>27</v>
       </c>
@@ -4689,14 +4972,14 @@
     </row>
     <row r="19" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="5" t="s">
         <v>25</v>
       </c>
@@ -4753,18 +5036,18 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -4813,22 +5096,22 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23" t="s">
+      <c r="E23" s="30"/>
+      <c r="F23" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23" t="s">
+      <c r="G23" s="30"/>
+      <c r="H23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="23"/>
+      <c r="I23" s="30"/>
       <c r="J23" s="1" t="s">
         <v>5</v>
       </c>
@@ -4901,28 +5184,28 @@
     </row>
     <row r="25" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="25" t="s">
         <v>8</v>
       </c>
       <c r="J25" s="5" t="s">
@@ -4950,14 +5233,14 @@
     </row>
     <row r="26" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="8" t="s">
         <v>34</v>
       </c>
@@ -4983,14 +5266,14 @@
     </row>
     <row r="27" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
       <c r="J27" s="5" t="s">
         <v>14</v>
       </c>
@@ -5016,14 +5299,14 @@
     </row>
     <row r="28" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
       <c r="J28" s="8" t="s">
         <v>34</v>
       </c>
@@ -5049,14 +5332,14 @@
     </row>
     <row r="29" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="5" t="s">
         <v>14</v>
       </c>
@@ -5082,14 +5365,14 @@
     </row>
     <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
       <c r="J30" s="5" t="s">
         <v>16</v>
       </c>
@@ -5115,14 +5398,14 @@
     </row>
     <row r="31" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
       <c r="J31" s="8" t="s">
         <v>38</v>
       </c>
@@ -5148,14 +5431,14 @@
     </row>
     <row r="32" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
       <c r="J32" s="5" t="s">
         <v>16</v>
       </c>
@@ -5181,14 +5464,14 @@
     </row>
     <row r="33" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
       <c r="J33" s="8" t="s">
         <v>38</v>
       </c>
@@ -5243,18 +5526,18 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -5303,22 +5586,22 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23" t="s">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23" t="s">
+      <c r="E37" s="30"/>
+      <c r="F37" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23" t="s">
+      <c r="G37" s="30"/>
+      <c r="H37" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I37" s="23"/>
+      <c r="I37" s="30"/>
       <c r="J37" s="1" t="s">
         <v>5</v>
       </c>
@@ -5391,28 +5674,28 @@
     </row>
     <row r="39" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="31" t="s">
         <v>47</v>
       </c>
       <c r="J39" s="8" t="s">
@@ -5440,14 +5723,14 @@
     </row>
     <row r="40" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
       <c r="J40" s="8" t="s">
         <v>27</v>
       </c>
@@ -5475,14 +5758,14 @@
     </row>
     <row r="41" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="8" t="s">
         <v>45</v>
       </c>
@@ -5508,18 +5791,18 @@
     </row>
     <row r="43" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -5568,22 +5851,22 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23" t="s">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23" t="s">
+      <c r="E45" s="30"/>
+      <c r="F45" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23" t="s">
+      <c r="G45" s="30"/>
+      <c r="H45" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="23"/>
+      <c r="I45" s="30"/>
       <c r="J45" s="1" t="s">
         <v>5</v>
       </c>
@@ -5724,18 +6007,18 @@
     </row>
     <row r="50" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -5784,22 +6067,22 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23" t="s">
+      <c r="C52" s="30"/>
+      <c r="D52" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23" t="s">
+      <c r="E52" s="30"/>
+      <c r="F52" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23" t="s">
+      <c r="G52" s="30"/>
+      <c r="H52" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I52" s="23"/>
+      <c r="I52" s="30"/>
       <c r="J52" s="1" t="s">
         <v>5</v>
       </c>
@@ -5872,28 +6155,28 @@
     </row>
     <row r="54" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H54" s="18" t="s">
+      <c r="H54" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="18" t="s">
+      <c r="I54" s="25" t="s">
         <v>56</v>
       </c>
       <c r="J54" s="8" t="s">
@@ -5920,14 +6203,14 @@
       <c r="AA54" s="1"/>
     </row>
     <row r="55" spans="1:27" ht="210" x14ac:dyDescent="0.25">
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
       <c r="J55" s="8" t="s">
         <v>58</v>
       </c>
@@ -5937,18 +6220,18 @@
     </row>
     <row r="57" spans="1:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -5968,22 +6251,22 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23" t="s">
+      <c r="C58" s="30"/>
+      <c r="D58" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23" t="s">
+      <c r="E58" s="30"/>
+      <c r="F58" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23" t="s">
+      <c r="G58" s="30"/>
+      <c r="H58" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="23"/>
+      <c r="I58" s="30"/>
       <c r="J58" s="1" t="s">
         <v>5</v>
       </c>
@@ -6056,28 +6339,28 @@
     </row>
     <row r="60" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="18" t="s">
+      <c r="G60" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H60" s="18" t="s">
+      <c r="H60" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I60" s="18" t="s">
+      <c r="I60" s="25" t="s">
         <v>8</v>
       </c>
       <c r="J60" s="8" t="s">
@@ -6103,14 +6386,14 @@
     </row>
     <row r="61" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="1"/>
@@ -6248,7 +6531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:AD48"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
@@ -6434,11 +6717,437 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077C97E0-DDC4-4AF8-9D67-BB802C171867}">
+  <dimension ref="A5:O27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C5" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+    </row>
+    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+    </row>
+    <row r="16" spans="1:15" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+    </row>
+    <row r="18" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+    </row>
+    <row r="20" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2337612-48A8-46D0-AA61-2B18318E8B5B}">
   <dimension ref="Z4:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6457,7 +7166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:X49"/>
   <sheetViews>
